--- a/storage/test_data/etl/single_with_file.xlsx
+++ b/storage/test_data/etl/single_with_file.xlsx
@@ -73,16 +73,16 @@
     <t xml:space="preserve">Ti-6Al-4V</t>
   </si>
   <si>
-    <t xml:space="preserve">P1/D1/hello.txt</t>
+    <t xml:space="preserve">P1/D1/f1.txt</t>
   </si>
   <si>
     <t xml:space="preserve">P1/does-not-exist.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">hello2.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hello3.txt</t>
+    <t xml:space="preserve">f2.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3.txt</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -202,7 +202,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="9" style="0" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="13" style="0" width="8.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="17" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="10.5"/>
   </cols>
@@ -286,7 +290,7 @@
       </c>
       <c r="I2" s="0" t="n">
         <f aca="true">RAND()*50 + 100</f>
-        <v>142.41093380861</v>
+        <v>130.911822653671</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>17</v>
@@ -314,7 +318,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J1" r:id="rId1" display="FILE:File that exists"/>
-    <hyperlink ref="L1" r:id="rId2" display="File:that"/>
+    <hyperlink ref="L1" r:id="rId2" display="File:that exists with path:P1/D1"/>
     <hyperlink ref="M1" r:id="rId3" display="file:P1/D1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
